--- a/AI1.xlsx
+++ b/AI1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\58298\Documents\GitHub\texaspoker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FCF470-84CD-4885-A661-0C9F5430AA3C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F7D72-6627-4DC2-865B-21AA17AE719A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6098,6 +6098,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>sheet!$A$4:$ZC$4</c:f>
